--- a/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,78</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,18</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,94</t>
+          <t>1,99</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 1,69</t>
+          <t>-8,05; 17,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -3,97</t>
+          <t>-10,43; 10,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,2; -6,38</t>
+          <t>-6,58; 11,18</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,71%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-48,31%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-41,12%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,25; 5,42</t>
+          <t>-17,55; 54,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,05; -19,57</t>
+          <t>-48,36; 74,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,76; -20,44</t>
+          <t>-19,58; 44,24</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-10,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-5,18</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -0,31</t>
+          <t>-15,46; -4,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,74</t>
+          <t>-5,66; 4,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -2,76</t>
+          <t>-9,09; -1,45</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,39%</t>
+          <t>-21,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,41%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,5%</t>
+          <t>-14,44%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,64; -0,91</t>
+          <t>-31,42; -9,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,0; -8,27</t>
+          <t>-20,48; 21,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,39; -10,74</t>
+          <t>-24,1; -4,14</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -4,28</t>
+          <t>-7,38; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -3,91</t>
+          <t>0,52; 8,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -5,03</t>
+          <t>-1,97; 4,19</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,66%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,94%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,23; -15,63</t>
+          <t>-16,39; 4,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -17,8</t>
+          <t>2,21; 39,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,68; -19,9</t>
+          <t>-5,7; 13,27</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,92</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,51</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>4,38</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,91; -9,93</t>
+          <t>-1,02; 9,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,07; -4,88</t>
+          <t>-0,25; 9,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -8,5</t>
+          <t>0,35; 7,96</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,76%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-35,87%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>14,09%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,98; -27,25</t>
+          <t>-2,44; 28,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,36; -19,24</t>
+          <t>-0,9; 40,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,5; -28,02</t>
+          <t>1,09; 27,08</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-2,86</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -1,0</t>
+          <t>-8,85; -0,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,1; -2,38</t>
+          <t>-5,48; 2,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -2,82</t>
+          <t>-5,91; -0,09</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-17,87%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-25,8%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-22,03%</t>
+          <t>-7,96%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,94; -3,86</t>
+          <t>-19,51; -0,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,62; -12,0</t>
+          <t>-17,47; 9,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,71; -12,14</t>
+          <t>-15,8; -0,26</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,85</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -6,51</t>
+          <t>-5,32; -0,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -5,42</t>
+          <t>-0,29; 3,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -6,77</t>
+          <t>-2,11; 1,33</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-27,52%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-30,54%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-29,28%</t>
+          <t>-1,18%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,21; -20,81</t>
+          <t>-12,16; -1,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,78; -23,56</t>
+          <t>-1,2; 15,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,01; -24,61</t>
+          <t>-6,15; 4,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 17,7</t>
+          <t>-8,74; 16,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 10,32</t>
+          <t>-10,88; 10,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 11,18</t>
+          <t>-6,92; 10,73</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 54,17</t>
+          <t>-18,66; 51,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 74,45</t>
+          <t>-48,38; 75,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 44,24</t>
+          <t>-20,37; 42,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -4,19</t>
+          <t>-15,82; -4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 4,59</t>
+          <t>-5,57; 5,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -1,45</t>
+          <t>-9,02; -1,21</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,42; -9,36</t>
+          <t>-31,9; -9,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 21,15</t>
+          <t>-20,48; 23,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -4,14</t>
+          <t>-23,79; -3,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 1,93</t>
+          <t>-7,24; 2,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 8,43</t>
+          <t>0,56; 8,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 4,19</t>
+          <t>-2,02; 4,32</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 4,79</t>
+          <t>-16,23; 5,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 39,69</t>
+          <t>2,27; 39,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 13,27</t>
+          <t>-5,85; 13,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 9,72</t>
+          <t>-1,3; 9,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 9,19</t>
+          <t>0,34; 9,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,96</t>
+          <t>0,77; 8,4</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 28,68</t>
+          <t>-3,21; 28,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 40,48</t>
+          <t>1,3; 42,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 27,08</t>
+          <t>2,13; 28,58</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -0,17</t>
+          <t>-8,96; 0,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,57</t>
+          <t>-5,23; 2,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,91; -0,09</t>
+          <t>-6,09; 0,06</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,51; -0,34</t>
+          <t>-19,86; 0,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 9,03</t>
+          <t>-16,87; 9,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -0,26</t>
+          <t>-15,96; 0,19</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -0,51</t>
+          <t>-5,19; -0,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,92</t>
+          <t>-0,1; 4,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,33</t>
+          <t>-1,95; 1,24</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -1,2</t>
+          <t>-11,87; -1,25</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 15,73</t>
+          <t>-0,35; 17,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 4,06</t>
+          <t>-5,69; 3,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 16,51</t>
+          <t>-8,77; 18,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 10,02</t>
+          <t>-10,05; 10,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 10,73</t>
+          <t>-7,68; 10,41</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 51,63</t>
+          <t>-18,72; 55,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,38; 75,75</t>
+          <t>-46,85; 80,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 42,4</t>
+          <t>-21,79; 42,69</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -4,43</t>
+          <t>-15,49; -4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 5,01</t>
+          <t>-5,19; 5,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -1,21</t>
+          <t>-8,96; -0,71</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -9,87</t>
+          <t>-30,56; -8,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 23,35</t>
+          <t>-19,97; 23,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,79; -3,54</t>
+          <t>-24,14; -2,45</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 2,25</t>
+          <t>-7,04; 1,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 8,54</t>
+          <t>0,6; 8,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,32</t>
+          <t>-1,85; 4,28</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 5,67</t>
+          <t>-15,94; 5,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 39,59</t>
+          <t>1,64; 40,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 13,62</t>
+          <t>-5,36; 13,65</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 9,6</t>
+          <t>-1,53; 9,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,64</t>
+          <t>0,43; 9,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,4</t>
+          <t>0,93; 8,12</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 28,08</t>
+          <t>-3,74; 26,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 42,91</t>
+          <t>1,08; 42,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 28,58</t>
+          <t>3,01; 28,02</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 0,02</t>
+          <t>-9,14; 0,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,61</t>
+          <t>-5,72; 2,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 0,06</t>
+          <t>-5,68; 0,11</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 0,21</t>
+          <t>-20,06; 0,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 9,69</t>
+          <t>-17,81; 8,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 0,19</t>
+          <t>-15,47; 0,17</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -0,47</t>
+          <t>-5,41; -0,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,31</t>
+          <t>-0,55; 3,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,24</t>
+          <t>-2,02; 1,27</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -1,25</t>
+          <t>-12,23; -1,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 17,6</t>
+          <t>-1,97; 16,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,69</t>
+          <t>-5,87; 3,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +513,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +530,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +554,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -542,11 +584,14 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-4,0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-3,62</t>
         </is>
       </c>
     </row>
@@ -579,17 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 18,13</t>
+          <t>-12,83; -2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 10,48</t>
+          <t>-14,01; -3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 10,41</t>
+          <t>-4,9; 4,75</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 7,03</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; -0,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 0,25</t>
         </is>
       </c>
     </row>
@@ -602,17 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>-16,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>-19,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-11,48%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-10,39%</t>
         </is>
       </c>
     </row>
@@ -625,24 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 55,61</t>
+          <t>-26,44; -4,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 80,78</t>
+          <t>-29,09; -8,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 42,69</t>
+          <t>-19,37; 22,76</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 32,1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-20,5; -1,28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-18,95; 1,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,05</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>4,67</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-3,24</t>
         </is>
       </c>
     </row>
@@ -675,17 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -4,21</t>
+          <t>-7,04; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 5,16</t>
+          <t>-13,75; -4,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -0,71</t>
+          <t>0,6; 8,97</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 6,61</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 4,28</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; -0,44</t>
         </is>
       </c>
     </row>
@@ -698,17 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,32%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-21,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-9,85%</t>
         </is>
       </c>
     </row>
@@ -721,24 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,56; -8,88</t>
+          <t>-15,94; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 23,05</t>
+          <t>-30,22; -11,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,14; -2,45</t>
+          <t>1,64; 40,56</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 30,71</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 13,65</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-17,91; -1,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
         </is>
       </c>
     </row>
@@ -771,17 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 1,99</t>
+          <t>-1,53; 9,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 8,97</t>
+          <t>-2,22; 9,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,28</t>
+          <t>0,43; 9,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 8,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 8,12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 7,22</t>
         </is>
       </c>
     </row>
@@ -794,17 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>19,14%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
         </is>
       </c>
     </row>
@@ -817,24 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 5,03</t>
+          <t>-3,74; 26,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,64; 40,56</t>
+          <t>-5,53; 26,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 13,65</t>
+          <t>1,08; 42,17</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 38,64</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 28,02</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 24,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>-12,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-4,62</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-8,34</t>
         </is>
       </c>
     </row>
@@ -867,17 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 9,31</t>
+          <t>-9,14; 0,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 9,72</t>
+          <t>-16,49; -7,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,12</t>
+          <t>-5,72; 2,39</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; -0,99</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 0,11</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; -5,27</t>
         </is>
       </c>
     </row>
@@ -890,17 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>-28,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>-4,48%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-15,76%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-7,96%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-23,27%</t>
         </is>
       </c>
     </row>
@@ -913,24 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 26,82</t>
+          <t>-20,06; 0,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 42,17</t>
+          <t>-36,81; -19,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,01; 28,02</t>
+          <t>-17,81; 8,5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-28,27; -3,59</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-15,47; 0,17</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-30,06; -15,32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
         </is>
       </c>
     </row>
@@ -963,17 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 0,24</t>
+          <t>-5,41; -0,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,39</t>
+          <t>-9,64; -4,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,11</t>
+          <t>-0,55; 3,97</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 2,78</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 1,27</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; -1,66</t>
         </is>
       </c>
     </row>
@@ -986,17 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-10,5%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>-17,08%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,18%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
         </is>
       </c>
     </row>
@@ -1009,131 +1339,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 0,56</t>
+          <t>-12,23; -1,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 8,5</t>
+          <t>-22,01; -11,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 0,17</t>
+          <t>-1,97; 16,35</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 11,17</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 3,89</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; -4,96</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,74</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; -0,63</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 3,97</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 1,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-6,47%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>7,45%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-12,23; -1,45</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 16,35</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 3,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,83; -2,03</t>
+          <t>-12,71; -2,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -3,56</t>
+          <t>-13,86; -3,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,75</t>
+          <t>-5,06; 3,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,03</t>
+          <t>-2,85; 6,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -0,3</t>
+          <t>-7,45; -0,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 0,25</t>
+          <t>-6,93; 0,19</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,44; -4,67</t>
+          <t>-26,29; -5,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,09; -8,53</t>
+          <t>-28,92; -8,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 22,76</t>
+          <t>-19,89; 18,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 32,1</t>
+          <t>-10,94; 27,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,5; -1,28</t>
+          <t>-20,41; -1,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 1,31</t>
+          <t>-19,14; 0,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 1,99</t>
+          <t>-7,25; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -4,81</t>
+          <t>-13,35; -4,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 8,97</t>
+          <t>0,92; 8,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 6,61</t>
+          <t>-1,07; 6,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,28</t>
+          <t>-2,1; 4,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -0,44</t>
+          <t>-5,92; 0,0</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 5,03</t>
+          <t>-16,12; 5,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,22; -11,71</t>
+          <t>-29,91; -10,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 40,56</t>
+          <t>3,38; 41,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 30,71</t>
+          <t>-4,25; 31,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 13,65</t>
+          <t>-6,1; 13,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -1,22</t>
+          <t>-17,37; 0,02</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 9,31</t>
+          <t>-1,44; 9,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 9,03</t>
+          <t>-1,75; 8,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 9,72</t>
+          <t>-0,21; 9,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 8,81</t>
+          <t>-0,65; 9,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,12</t>
+          <t>0,67; 7,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 7,22</t>
+          <t>0,08; 7,25</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 26,82</t>
+          <t>-3,55; 26,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 26,74</t>
+          <t>-4,38; 25,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 42,17</t>
+          <t>-0,55; 42,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 38,64</t>
+          <t>-2,18; 40,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 28,02</t>
+          <t>1,76; 26,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 24,66</t>
+          <t>0,34; 24,99</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 0,24</t>
+          <t>-8,84; 0,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -7,8</t>
+          <t>-17,17; -8,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,39</t>
+          <t>-5,22; 2,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,99</t>
+          <t>-8,54; -0,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,11</t>
+          <t>-5,86; 0,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -5,27</t>
+          <t>-11,36; -5,34</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 0,56</t>
+          <t>-19,89; 0,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,81; -19,22</t>
+          <t>-37,8; -19,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 8,5</t>
+          <t>-17,06; 8,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,27; -3,59</t>
+          <t>-27,09; -2,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 0,17</t>
+          <t>-15,84; 0,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,06; -15,32</t>
+          <t>-30,67; -15,65</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -0,63</t>
+          <t>-4,88; -0,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -4,95</t>
+          <t>-9,55; -4,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,97</t>
+          <t>-0,25; 4,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,78</t>
+          <t>-1,5; 2,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,27</t>
+          <t>-2,13; 1,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -1,66</t>
+          <t>-5,1; -1,78</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -1,45</t>
+          <t>-11,23; -0,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,01; -11,82</t>
+          <t>-21,85; -11,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 16,35</t>
+          <t>-1,1; 17,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 11,17</t>
+          <t>-5,71; 10,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 3,89</t>
+          <t>-6,15; 3,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -4,96</t>
+          <t>-14,66; -5,37</t>
         </is>
       </c>
     </row>
